--- a/data/trans_camb/P31_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_1_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 5,33</t>
+          <t>-15,46; 5,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 21,25</t>
+          <t>-2,66; 24,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 16,37</t>
+          <t>-18,1; 3,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 13,73</t>
+          <t>-1,76; 16,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,54</t>
+          <t>-5,68; 12,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 13,59</t>
+          <t>-3,36; 15,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 9,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 15,75</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,83; 7,92</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,16%</t>
+          <t>-15,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,9%</t>
+          <t>-22,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 19,35</t>
+          <t>-42,73; 22,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 79,37</t>
+          <t>-7,92; 94,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 65,03</t>
+          <t>-49,4; 13,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 55,88</t>
+          <t>-5,98; 69,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 31,73</t>
+          <t>-18,57; 54,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 49,96</t>
+          <t>-11,39; 70,92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 38,49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 61,2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-24,14; 32,26</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,91</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 11,77</t>
+          <t>-2,37; 19,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 11,26</t>
+          <t>-4,69; 17,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 14,39</t>
+          <t>-12,02; 9,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 10,46</t>
+          <t>-2,26; 18,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 11,08</t>
+          <t>-10,99; 11,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 8,26</t>
+          <t>-4,82; 21,38</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 16,32</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 11,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; 12,1</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>35,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>-4,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>19,19%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 48,43</t>
+          <t>-8,1; 99,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 46,0</t>
+          <t>-14,91; 85,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 43,83</t>
+          <t>-40,38; 46,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 31,91</t>
+          <t>-5,57; 55,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 35,89</t>
+          <t>-24,09; 34,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 27,14</t>
+          <t>-12,22; 60,88</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 57,03</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 41,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; 41,13</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-17,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>-32,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,58</t>
+          <t>-27,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,59</t>
+          <t>13,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>8,49</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-8,61</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-9,94</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 23,1</t>
+          <t>-55,39; 22,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 14,76</t>
+          <t>-63,38; 0,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 25,83</t>
+          <t>-58,8; 5,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 38,15</t>
+          <t>-13,01; 35,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 18,88</t>
+          <t>-9,15; 37,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 22,35</t>
+          <t>-14,99; 29,94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,15; 18,04</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-33,19; 11,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-32,69; 10,2</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>-32,58%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>-59,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>-49,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>61,89%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>20,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-4,55%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-17,92%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-20,68%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,12; 101,84</t>
+          <t>-82,18; 77,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,52; 66,01</t>
+          <t>-91,3; 9,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,87; 94,4</t>
+          <t>-83,88; 21,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,22; 145,34</t>
+          <t>-23,37; 119,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 67,63</t>
+          <t>-15,81; 135,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,28; 75,78</t>
+          <t>-29,71; 98,15</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-41,98; 50,12</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-57,15; 27,04</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-58,0; 29,04</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>7,15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 5,64</t>
+          <t>-9,15; 8,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 12,17</t>
+          <t>-5,27; 13,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 13,49</t>
+          <t>-15,59; 1,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 12,21</t>
+          <t>0,72; 14,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,77</t>
+          <t>-4,01; 10,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,29</t>
+          <t>0,52; 14,89</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 9,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 5,94</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,93%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 20,11</t>
+          <t>-25,55; 31,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 43,09</t>
+          <t>-15,43; 49,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 44,85</t>
+          <t>-42,78; 4,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,1; 40,43</t>
+          <t>1,96; 48,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 25,74</t>
+          <t>-10,18; 33,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 30,67</t>
+          <t>1,26; 48,98</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-5,59; 30,53</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 29,93</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; 19,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
